--- a/Program/Files/WalkerTA-MISP-Template.xlsx
+++ b/Program/Files/WalkerTA-MISP-Template.xlsx
@@ -1028,7 +1028,7 @@
       <c r="C22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="n"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr">
         <is>
           <t>Artifacts dropped (file)</t>
@@ -1049,7 +1049,7 @@
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="n"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr">
         <is>
           <t>Artifacts dropped (file)</t>
@@ -1070,7 +1070,7 @@
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="n"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr">
         <is>
           <t>Artifacts dropped (file)</t>
@@ -1091,7 +1091,7 @@
       <c r="C25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="n"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="11" t="inlineStr">
         <is>
           <t>Artifacts dropped (file)</t>
@@ -1112,7 +1112,7 @@
       <c r="C26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="n"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr">
         <is>
           <t>Artifacts dropped (file)</t>
@@ -1154,7 +1154,7 @@
       <c r="C28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="n"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr">
         <is>
           <t>Credential POST</t>
@@ -1175,7 +1175,7 @@
       <c r="C29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="n"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr">
         <is>
           <t>Redirect URL</t>
@@ -1196,7 +1196,7 @@
       <c r="C30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="n"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr">
         <is>
           <t>Redirect URL</t>
@@ -1217,7 +1217,7 @@
       <c r="C31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="n"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="11" t="inlineStr">
         <is>
           <t>Redirect URL</t>
@@ -1238,7 +1238,7 @@
       <c r="C32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="n"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr">
         <is>
           <t>Redirect URL</t>
@@ -1259,7 +1259,7 @@
       <c r="C33" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="n"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="11" t="inlineStr">
         <is>
           <t>Redirect URL</t>
@@ -1280,7 +1280,7 @@
       <c r="C34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="3" t="n"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr">
         <is>
           <t>Research links</t>
@@ -1301,7 +1301,7 @@
       <c r="C35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="3" t="n"/>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="11" t="inlineStr">
         <is>
           <t>Research links</t>
@@ -1322,7 +1322,7 @@
       <c r="C36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="3" t="n"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr">
         <is>
           <t>Research links</t>
@@ -1343,7 +1343,7 @@
       <c r="C37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="3" t="n"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="11" t="inlineStr">
         <is>
           <t>Research links</t>
@@ -1364,7 +1364,7 @@
       <c r="C38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="3" t="n"/>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr">
         <is>
           <t>Research links</t>
